--- a/dataset/Diện tích các tỉnh năm 2022.xlsx
+++ b/dataset/Diện tích các tỉnh năm 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHTN\DV\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCF7619-BE69-4E0F-960B-BE5D3CAB3C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20634FE-DBFB-45AD-A358-11C26C7B5E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{5DD8AEF5-AEE4-4C1B-9E94-49A8B592BEB8}"/>
+    <workbookView xWindow="7200" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{5DD8AEF5-AEE4-4C1B-9E94-49A8B592BEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset/Diện tích các tỉnh năm 2022.xlsx
+++ b/dataset/Diện tích các tỉnh năm 2022.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHTN\DV\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20634FE-DBFB-45AD-A358-11C26C7B5E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE766B-61B4-4F43-AA09-0229475A8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2445" windowWidth="21600" windowHeight="11295" xr2:uid="{5DD8AEF5-AEE4-4C1B-9E94-49A8B592BEB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DD8AEF5-AEE4-4C1B-9E94-49A8B592BEB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diện tích" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Tỉnh</t>
   </si>
@@ -44,382 +44,193 @@
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>3.359,8</t>
-  </si>
-  <si>
     <t>Diện tích(km2)</t>
   </si>
   <si>
     <t>Vĩnh Phúc</t>
   </si>
   <si>
-    <t>1.236,0</t>
-  </si>
-  <si>
     <t>Bắc Ninh</t>
   </si>
   <si>
-    <t>822,7</t>
-  </si>
-  <si>
     <t>Quảng Ninh</t>
   </si>
   <si>
-    <t>6.207,9</t>
-  </si>
-  <si>
     <t>Hải Dương</t>
   </si>
   <si>
-    <t>1.668,3</t>
-  </si>
-  <si>
     <t>Hải Phòng</t>
   </si>
   <si>
-    <t>1.526,5</t>
-  </si>
-  <si>
     <t>Hưng Yên</t>
   </si>
   <si>
-    <t>930,2</t>
-  </si>
-  <si>
     <t>Thái Bình</t>
   </si>
   <si>
-    <t>1.584,6</t>
-  </si>
-  <si>
     <t>Hà Nam</t>
   </si>
   <si>
-    <t>861,9</t>
-  </si>
-  <si>
     <t>Nam Định</t>
   </si>
   <si>
-    <t>1.668,8</t>
-  </si>
-  <si>
     <t>Ninh Bình</t>
   </si>
   <si>
-    <t>1.411,8</t>
-  </si>
-  <si>
     <t>Hà Giang</t>
   </si>
   <si>
-    <t>7.927,6</t>
-  </si>
-  <si>
     <t>Cao Bằng</t>
   </si>
   <si>
-    <t>6.700,4</t>
-  </si>
-  <si>
     <t>Bắc Kạn</t>
   </si>
   <si>
-    <t>4.860,0</t>
-  </si>
-  <si>
     <t>Tuyên Quang</t>
   </si>
   <si>
-    <t>5.868,0</t>
-  </si>
-  <si>
     <t>Lào Cai</t>
   </si>
   <si>
-    <t>6.364,3</t>
-  </si>
-  <si>
     <t>Yên Bái</t>
   </si>
   <si>
-    <t>6.892,7</t>
-  </si>
-  <si>
     <t>Thái Nguyên</t>
   </si>
   <si>
-    <t>3.522,0</t>
-  </si>
-  <si>
     <t>Lạng Sơn</t>
   </si>
   <si>
-    <t>8.310,2</t>
-  </si>
-  <si>
     <t>Bắc Giang</t>
   </si>
   <si>
-    <t>3.895,9</t>
-  </si>
-  <si>
     <t>Phú Thọ</t>
   </si>
   <si>
-    <t>3.534,6</t>
-  </si>
-  <si>
     <t>Điện Biên</t>
   </si>
   <si>
-    <t>9.539,9</t>
-  </si>
-  <si>
     <t>Lai Châu</t>
   </si>
   <si>
-    <t>9.068,7</t>
-  </si>
-  <si>
     <t>Sơn La</t>
   </si>
   <si>
-    <t>14.109,8</t>
-  </si>
-  <si>
     <t>Hoà Bình</t>
   </si>
   <si>
-    <t>4.590,3</t>
-  </si>
-  <si>
     <t>Thanh Hoá</t>
   </si>
   <si>
-    <t>11.114,7</t>
-  </si>
-  <si>
     <t>Nghệ An</t>
   </si>
   <si>
-    <t>16.486,5</t>
-  </si>
-  <si>
     <t>Hà Tĩnh</t>
   </si>
   <si>
-    <t>5.994,5</t>
-  </si>
-  <si>
     <t>Quảng Bình</t>
   </si>
   <si>
-    <t>7.998,8</t>
-  </si>
-  <si>
     <t>Quảng Trị</t>
   </si>
   <si>
-    <t>4.701,2</t>
-  </si>
-  <si>
     <t>Thừa Thiên Huế</t>
   </si>
   <si>
-    <t>4.947,1</t>
-  </si>
-  <si>
     <t>Đà Nẵng</t>
   </si>
   <si>
-    <t>1.284,7</t>
-  </si>
-  <si>
     <t>Quảng Nam</t>
   </si>
   <si>
-    <t>10.574,9</t>
-  </si>
-  <si>
     <t>Quảng Ngãi</t>
   </si>
   <si>
-    <t>5.155,3</t>
-  </si>
-  <si>
     <t>Bình Định</t>
   </si>
   <si>
-    <t>6.066,4</t>
-  </si>
-  <si>
     <t>Phú Yên</t>
   </si>
   <si>
-    <t>5.026,0</t>
-  </si>
-  <si>
     <t>Khánh Hoà</t>
   </si>
   <si>
-    <t>5.199,6</t>
-  </si>
-  <si>
     <t>Ninh Thuận</t>
   </si>
   <si>
-    <t>3.355,7</t>
-  </si>
-  <si>
     <t>Bình Thuận</t>
   </si>
   <si>
-    <t>7.942,6</t>
-  </si>
-  <si>
     <t>Kon Tum</t>
   </si>
   <si>
-    <t>9.677,3</t>
-  </si>
-  <si>
     <t>Gia Lai</t>
   </si>
   <si>
-    <t>15.510,1</t>
-  </si>
-  <si>
     <t>Đắk Lắk</t>
   </si>
   <si>
-    <t>13.070,4</t>
-  </si>
-  <si>
     <t>Đắk Nông</t>
   </si>
   <si>
-    <t>6.509,3</t>
-  </si>
-  <si>
     <t>Lâm Đồng</t>
   </si>
   <si>
-    <t>9.781,2</t>
-  </si>
-  <si>
     <t>Bình Phước</t>
   </si>
   <si>
-    <t>6.873,6</t>
-  </si>
-  <si>
     <t>Tây Ninh</t>
   </si>
   <si>
-    <t>4.041,7</t>
-  </si>
-  <si>
     <t>Bình Dương</t>
   </si>
   <si>
-    <t>2.694,6</t>
-  </si>
-  <si>
     <t>Đồng Nai</t>
   </si>
   <si>
-    <t>5.863,6</t>
-  </si>
-  <si>
     <t>Bà Rịa - Vũng Tàu</t>
   </si>
   <si>
-    <t>1.982,6</t>
-  </si>
-  <si>
-    <t>TP.Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>2.095,4</t>
-  </si>
-  <si>
     <t>Long An</t>
   </si>
   <si>
-    <t>4.494,8</t>
-  </si>
-  <si>
     <t>Tiền Giang</t>
   </si>
   <si>
-    <t>2.556,4</t>
-  </si>
-  <si>
     <t>Bến Tre</t>
   </si>
   <si>
-    <t>2.379,7</t>
-  </si>
-  <si>
     <t>Trà Vinh</t>
   </si>
   <si>
-    <t>2.390,8</t>
-  </si>
-  <si>
     <t>Vĩnh Long</t>
   </si>
   <si>
-    <t>1.525,7</t>
-  </si>
-  <si>
     <t>Đồng Tháp</t>
   </si>
   <si>
-    <t>3.382,3</t>
-  </si>
-  <si>
     <t>An Giang</t>
   </si>
   <si>
-    <t>3.536,8</t>
-  </si>
-  <si>
     <t>Kiên Giang</t>
   </si>
   <si>
-    <t>6.352,9</t>
-  </si>
-  <si>
     <t>Cần Thơ</t>
   </si>
   <si>
-    <t>1.440,4</t>
-  </si>
-  <si>
     <t>Hậu Giang</t>
   </si>
   <si>
-    <t>1.622,2</t>
-  </si>
-  <si>
     <t>Sóc Trăng</t>
   </si>
   <si>
-    <t>3.298,2</t>
-  </si>
-  <si>
     <t>Bạc Liêu</t>
   </si>
   <si>
-    <t>2.667,9</t>
-  </si>
-  <si>
     <t>Cà Mau</t>
   </si>
   <si>
-    <t>5.274,5</t>
+    <t>TPHồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -801,7 +612,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,511 +626,511 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="1">
+        <v>3359.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>822.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6207.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1668.3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1526.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>930.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1584.6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>861.9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1668.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1411.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7927.6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6700.4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4860</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5868</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6364.3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6892.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3522</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8310.2000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3895.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3534.6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9539.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9068.7000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14109.8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="1">
+        <v>4590.3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11114.7</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16486.5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5994.5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="1">
+        <v>7998.8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4701.2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4947.1000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1284.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10574.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5155.3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6066.4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5026</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5199.6000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3355.7</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>7942.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9677.2999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15510.1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="B43" s="1">
+        <v>13070.4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6509.3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9781.2000000000007</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6873.6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4041.7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>48</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2694.6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5863.6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1982.6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2095.4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4494.8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2556.4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2379.6999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2390.8000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1525.7</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>113</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3382.3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>115</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3536.8</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6352.9</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>119</v>
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1440.4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1622.2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3298.2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>125</v>
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2667.9</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5274.5</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Diện tích các tỉnh năm 2022.xlsx
+++ b/dataset/Diện tích các tỉnh năm 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHTN\DV\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE766B-61B4-4F43-AA09-0229475A8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9E1D5-532B-4C0F-BB06-C5C2B5DD0FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5DD8AEF5-AEE4-4C1B-9E94-49A8B592BEB8}"/>
   </bookViews>
@@ -230,7 +230,7 @@
     <t>Cà Mau</t>
   </si>
   <si>
-    <t>TPHồ Chí Minh</t>
+    <t>TP.Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A015C7-7226-4841-9482-49DEA9A04AE6}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
